--- a/init-data/hzero-platform/hzero_platform/hzero-platform-static-text.xlsx
+++ b/init-data/hzero-platform/hzero_platform/hzero-platform-static-text.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2071,6 +2071,9 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
   </si>
   <si>
     <t>*</t>
@@ -2102,6 +2105,40 @@
 &amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;contactCompanys&amp;nbsp;=&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.CONTACT_COMPANY);&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;//&amp;nbsp;获取模板下配置的企业链接信息&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;companyLinks&amp;nbsp;=&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.COMPANY_LINK);&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>How to use template configuration items?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1.Add the following dependencies to your project.&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;lt;dependency&amp;gt;&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;groupId&amp;gt;org.hzero.boot&amp;lt;/groupId&amp;gt;&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;artifactId&amp;gt;hzero-boot-platform&amp;lt;/artifactId&amp;gt;&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;lt;/dependency&amp;gt;&lt;br /&gt;
+2.Inject the template configuration client in a class that needs to reference the template configuration.&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;@Autowired&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;private&amp;nbsp;TemplateConfigClient&amp;nbsp;templateConfigClient;&lt;br /&gt;
+3. In the method, the template configuration value is obtained by the client, where webUrl is the domain name, and&lt;br /&gt;
+templateCode is the template code assigned by the domain name.Constants.ConfigCode.XX is configured with the&lt;br /&gt;
+template configuration code defined under our selected template, which is maintained in the project using constant classes.&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;//&amp;nbsp;Obtain the LOGO information configured under the template.&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;TemplateConfigVO&amp;nbsp;logoItem&amp;nbsp;=&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getOneTemplateConfigValue(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.LOGO);&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;//&amp;nbsp;Get the carousel information configured under the template&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;carouselItems&amp;nbsp;=&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.CAROUSEL);&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;if&amp;nbsp;(CollectionUtils.isEmpty(carouselItems))&amp;nbsp;{&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;carouselItems&amp;nbsp;=&amp;nbsp;new&amp;nbsp;HashSet&amp;lt;&amp;gt;();&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;}&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;//&amp;nbsp;Obtain contact enterprise information configured under the template&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;contactCompanys&amp;nbsp;=&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.CONTACT_COMPANY);&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;//&amp;nbsp;Obtain the enterprise link information configured under the template&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;companyLinks&amp;nbsp;=&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.COMPANY_LINK);&lt;/p&gt;</t>
   </si>
@@ -3116,7 +3153,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3251,16 +3288,19 @@
       <c r="J10" t="s">
         <v>75</v>
       </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <f>静态文本数据!$E$8</f>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>66</v>
@@ -3269,7 +3309,30 @@
         <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12">
+        <f>静态文本数据!$E$8</f>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
